--- a/InputData/trans/ICtPSFfL/Incremental Cost to Produce Substitute Fuel for LCFS.xlsx
+++ b/InputData/trans/ICtPSFfL/Incremental Cost to Produce Substitute Fuel for LCFS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\ICtPSFfL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-eu\InputData\trans\ICtPSFfL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C4D91B-AD95-4FC1-8381-56F75EF0F753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13800"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -28,17 +29,26 @@
     <definedName name="nonlignite_multiplier">#REF!</definedName>
     <definedName name="use_lifecycle_biofuel_EIs">[1]About!$A$61</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="46">
   <si>
     <t>Renewable Diesel</t>
   </si>
@@ -168,11 +178,20 @@
   <si>
     <t>Cost ($/BTU)</t>
   </si>
+  <si>
+    <t>We adjust for the EU data by the ratio of EU:US pre-tax transportation biofuel costs (see file fuels/BFPaT for the EU and US models).</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -574,22 +593,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -597,97 +618,118 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="5">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>947817.12</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27">
+        <v>1.8152570386688024E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28">
+        <v>1.2337034592036476E-5</v>
       </c>
     </row>
   </sheetData>
@@ -697,23 +739,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>2015</v>
       </c>
@@ -823,7 +865,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -936,7 +978,7 @@
         <v>38.8994534841326</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1049,7 +1091,7 @@
         <v>47.526138928681398</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1162,7 +1204,7 @@
         <v>36.031200708728697</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1275,7 +1317,7 @@
         <v>41.934834775512002</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1388,7 +1430,7 @@
         <v>36.031508112322399</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1501,12 +1543,12 @@
         <v>39.309585492238803</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1619,7 +1661,7 @@
         <v>38.8994534841326</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1732,12 +1774,12 @@
         <v>47.526138928681398</v>
       </c>
     </row>
-    <row r="13" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1886,7 +1928,7 @@
         <v>4.1041096075720387E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -2035,7 +2077,7 @@
         <v>5.0142731045712066E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2184,7 +2226,7 @@
         <v>3.8014929197236589E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2333,7 +2375,7 @@
         <v>4.4243592873182117E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -2482,7 +2524,7 @@
         <v>3.8015253525197351E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -2631,7 +2673,7 @@
         <v>4.1473808251362669E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -2780,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -2929,7 +2971,7 @@
         <v>4.1041096075720387E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -3078,12 +3120,12 @@
         <v>5.0142731045712066E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -3091,7 +3133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -3099,7 +3141,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -3107,7 +3149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -3115,12 +3157,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>2015</v>
       </c>
@@ -3230,7 +3272,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -3343,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -3456,7 +3498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -3605,7 +3647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -3760,21 +3802,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AK11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:AK7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -3887,7 +3931,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4036,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4185,7 +4229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -4334,7 +4378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -4483,7 +4527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -4632,156 +4676,156 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7">
-        <f>MAX(Calcs!B35,0)</f>
-        <v>1.4983336005860395E-5</v>
+        <f>MAX(Calcs!B35,0)*(About!$B$27/About!$B$28)</f>
+        <v>2.2046307760970705E-5</v>
       </c>
       <c r="C7">
-        <f>MAX(Calcs!C35,0)</f>
-        <v>1.5561023702055728E-5</v>
+        <f>MAX(Calcs!C35,0)*(About!$B$27/About!$B$28)</f>
+        <v>2.2896310773321701E-5</v>
       </c>
       <c r="D7">
-        <f>MAX(Calcs!D35,0)</f>
-        <v>1.547130867572871E-5</v>
+        <f>MAX(Calcs!D35,0)*(About!$B$27/About!$B$28)</f>
+        <v>2.2764305118478519E-5</v>
       </c>
       <c r="E7">
-        <f>MAX(Calcs!E35,0)</f>
-        <v>1.5172591501583976E-5</v>
+        <f>MAX(Calcs!E35,0)*(About!$B$27/About!$B$28)</f>
+        <v>2.2324776114249655E-5</v>
       </c>
       <c r="F7">
-        <f>MAX(Calcs!F35,0)</f>
-        <v>1.4256827738911485E-5</v>
+        <f>MAX(Calcs!F35,0)*(About!$B$27/About!$B$28)</f>
+        <v>2.0977331877510539E-5</v>
       </c>
       <c r="G7">
-        <f>MAX(Calcs!G35,0)</f>
-        <v>1.3481046592252095E-5</v>
+        <f>MAX(Calcs!G35,0)*(About!$B$27/About!$B$28)</f>
+        <v>1.9835856447224374E-5</v>
       </c>
       <c r="H7">
-        <f>MAX(Calcs!H35,0)</f>
-        <v>1.2683734860189488E-5</v>
+        <f>MAX(Calcs!H35,0)*(About!$B$27/About!$B$28)</f>
+        <v>1.8662701161938794E-5</v>
       </c>
       <c r="I7">
-        <f>MAX(Calcs!I35,0)</f>
-        <v>1.153271310612484E-5</v>
+        <f>MAX(Calcs!I35,0)*(About!$B$27/About!$B$28)</f>
+        <v>1.696910103044896E-5</v>
       </c>
       <c r="J7">
-        <f>MAX(Calcs!J35,0)</f>
-        <v>1.0162044434229573E-5</v>
+        <f>MAX(Calcs!J35,0)*(About!$B$27/About!$B$28)</f>
+        <v>1.4952314957767624E-5</v>
       </c>
       <c r="K7">
-        <f>MAX(Calcs!K35,0)</f>
-        <v>1.0283888023439061E-5</v>
+        <f>MAX(Calcs!K35,0)*(About!$B$27/About!$B$28)</f>
+        <v>1.5131594209421796E-5</v>
       </c>
       <c r="L7">
-        <f>MAX(Calcs!L35,0)</f>
-        <v>1.0160499354831865E-5</v>
+        <f>MAX(Calcs!L35,0)*(About!$B$27/About!$B$28)</f>
+        <v>1.4950041545764871E-5</v>
       </c>
       <c r="M7">
-        <f>MAX(Calcs!M35,0)</f>
-        <v>1.0027822438351394E-5</v>
+        <f>MAX(Calcs!M35,0)*(About!$B$27/About!$B$28)</f>
+        <v>1.4754822261330416E-5</v>
       </c>
       <c r="N7">
-        <f>MAX(Calcs!N35,0)</f>
-        <v>9.8873490021975999E-6</v>
+        <f>MAX(Calcs!N35,0)*(About!$B$27/About!$B$28)</f>
+        <v>1.454813126778423E-5</v>
       </c>
       <c r="O7">
-        <f>MAX(Calcs!O35,0)</f>
-        <v>9.5487841646873881E-6</v>
+        <f>MAX(Calcs!O35,0)*(About!$B$27/About!$B$28)</f>
+        <v>1.404997087133622E-5</v>
       </c>
       <c r="P7">
-        <f>MAX(Calcs!P35,0)</f>
-        <v>9.5301969604591001E-6</v>
+        <f>MAX(Calcs!P35,0)*(About!$B$27/About!$B$28)</f>
+        <v>1.4022621873444657E-5</v>
       </c>
       <c r="Q7">
-        <f>MAX(Calcs!Q35,0)</f>
-        <v>9.2556773196750223E-6</v>
+        <f>MAX(Calcs!Q35,0)*(About!$B$27/About!$B$28)</f>
+        <v>1.3618696840675604E-5</v>
       </c>
       <c r="R7">
-        <f>MAX(Calcs!R35,0)</f>
-        <v>1.050475757523149E-5</v>
+        <f>MAX(Calcs!R35,0)*(About!$B$27/About!$B$28)</f>
+        <v>1.5456579120121188E-5</v>
       </c>
       <c r="S7">
-        <f>MAX(Calcs!S35,0)</f>
-        <v>1.0236835313510908E-5</v>
+        <f>MAX(Calcs!S35,0)*(About!$B$27/About!$B$28)</f>
+        <v>1.5062361394803075E-5</v>
       </c>
       <c r="T7">
-        <f>MAX(Calcs!T35,0)</f>
-        <v>9.8027330425159485E-6</v>
+        <f>MAX(Calcs!T35,0)*(About!$B$27/About!$B$28)</f>
+        <v>1.4423628320783514E-5</v>
       </c>
       <c r="U7">
-        <f>MAX(Calcs!U35,0)</f>
-        <v>9.2258969328643323E-6</v>
+        <f>MAX(Calcs!U35,0)*(About!$B$27/About!$B$28)</f>
+        <v>1.3574878323049593E-5</v>
       </c>
       <c r="V7">
-        <f>MAX(Calcs!V35,0)</f>
-        <v>9.9329310402706153E-6</v>
+        <f>MAX(Calcs!V35,0)*(About!$B$27/About!$B$28)</f>
+        <v>1.4615200152800019E-5</v>
       </c>
       <c r="W7">
-        <f>MAX(Calcs!W35,0)</f>
-        <v>9.1794405787296826E-6</v>
+        <f>MAX(Calcs!W35,0)*(About!$B$27/About!$B$28)</f>
+        <v>1.3506522979466259E-5</v>
       </c>
       <c r="X7">
-        <f>MAX(Calcs!X35,0)</f>
-        <v>8.0323304669281553E-6</v>
+        <f>MAX(Calcs!X35,0)*(About!$B$27/About!$B$28)</f>
+        <v>1.1818678393280209E-5</v>
       </c>
       <c r="Y7">
-        <f>MAX(Calcs!Y35,0)</f>
-        <v>6.4635088739849921E-6</v>
+        <f>MAX(Calcs!Y35,0)*(About!$B$27/About!$B$28)</f>
+        <v>9.510332398332658E-6</v>
       </c>
       <c r="Z7">
-        <f>MAX(Calcs!Z35,0)</f>
-        <v>6.4197138942311997E-6</v>
+        <f>MAX(Calcs!Z35,0)*(About!$B$27/About!$B$28)</f>
+        <v>9.4458929703134261E-6</v>
       </c>
       <c r="AA7">
-        <f>MAX(Calcs!AA35,0)</f>
-        <v>4.7743679163858121E-6</v>
+        <f>MAX(Calcs!AA35,0)*(About!$B$27/About!$B$28)</f>
+        <v>7.0249498781564455E-6</v>
       </c>
       <c r="AB7">
-        <f>MAX(Calcs!AB35,0)</f>
-        <v>3.7014678237905137E-6</v>
+        <f>MAX(Calcs!AB35,0)*(About!$B$27/About!$B$28)</f>
+        <v>5.4462970581917606E-6</v>
       </c>
       <c r="AC7">
-        <f>MAX(Calcs!AC35,0)</f>
-        <v>5.4807606455608285E-6</v>
+        <f>MAX(Calcs!AC35,0)*(About!$B$27/About!$B$28)</f>
+        <v>8.0643279913759103E-6</v>
       </c>
       <c r="AD7">
-        <f>MAX(Calcs!AD35,0)</f>
-        <v>3.4510814275411062E-6</v>
+        <f>MAX(Calcs!AD35,0)*(About!$B$27/About!$B$28)</f>
+        <v>5.077881403045554E-6</v>
       </c>
       <c r="AE7">
-        <f>MAX(Calcs!AE35,0)</f>
+        <f>MAX(Calcs!AE35,0)*(About!$B$27/About!$B$28)</f>
         <v>0</v>
       </c>
       <c r="AF7">
-        <f>MAX(Calcs!AF35,0)</f>
+        <f>MAX(Calcs!AF35,0)*(About!$B$27/About!$B$28)</f>
         <v>0</v>
       </c>
       <c r="AG7">
-        <f>MAX(Calcs!AG35,0)</f>
+        <f>MAX(Calcs!AG35,0)*(About!$B$27/About!$B$28)</f>
         <v>0</v>
       </c>
       <c r="AH7">
-        <f>MAX(Calcs!AH35,0)</f>
+        <f>MAX(Calcs!AH35,0)*(About!$B$27/About!$B$28)</f>
         <v>0</v>
       </c>
       <c r="AI7">
-        <f>MAX(Calcs!AI35,0)</f>
+        <f>MAX(Calcs!AI35,0)*(About!$B$27/About!$B$28)</f>
         <v>0</v>
       </c>
       <c r="AJ7">
-        <f>MAX(Calcs!AJ35,0)</f>
+        <f>MAX(Calcs!AJ35,0)*(About!$B$27/About!$B$28)</f>
         <v>0</v>
       </c>
       <c r="AK7">
-        <f>MAX(Calcs!AK35,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+        <f>MAX(Calcs!AK35,0)*(About!$B$27/About!$B$28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -4930,7 +4974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -5079,7 +5123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -5228,7 +5272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>41</v>
       </c>

--- a/InputData/trans/ICtPSFfL/Incremental Cost to Produce Substitute Fuel for LCFS.xlsx
+++ b/InputData/trans/ICtPSFfL/Incremental Cost to Produce Substitute Fuel for LCFS.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-eu\InputData\trans\ICtPSFfL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\ICtPSFfL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C4D91B-AD95-4FC1-8381-56F75EF0F753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13800"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -29,26 +28,17 @@
     <definedName name="nonlignite_multiplier">#REF!</definedName>
     <definedName name="use_lifecycle_biofuel_EIs">[1]About!$A$61</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
   <si>
     <t>Renewable Diesel</t>
   </si>
@@ -178,20 +168,11 @@
   <si>
     <t>Cost ($/BTU)</t>
   </si>
-  <si>
-    <t>We adjust for the EU data by the ratio of EU:US pre-tax transportation biofuel costs (see file fuels/BFPaT for the EU and US models).</t>
-  </si>
-  <si>
-    <t>EU</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -593,24 +574,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -618,118 +597,97 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>947817.12</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27">
-        <v>1.8152570386688024E-5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28">
-        <v>1.2337034592036476E-5</v>
       </c>
     </row>
   </sheetData>
@@ -739,23 +697,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.453125" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>2015</v>
       </c>
@@ -865,7 +823,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -978,7 +936,7 @@
         <v>38.8994534841326</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1091,7 +1049,7 @@
         <v>47.526138928681398</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1204,7 +1162,7 @@
         <v>36.031200708728697</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1317,7 +1275,7 @@
         <v>41.934834775512002</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1430,7 +1388,7 @@
         <v>36.031508112322399</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1543,12 +1501,12 @@
         <v>39.309585492238803</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1661,7 +1619,7 @@
         <v>38.8994534841326</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1774,12 +1732,12 @@
         <v>47.526138928681398</v>
       </c>
     </row>
-    <row r="13" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1928,7 +1886,7 @@
         <v>4.1041096075720387E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -2077,7 +2035,7 @@
         <v>5.0142731045712066E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2226,7 +2184,7 @@
         <v>3.8014929197236589E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2375,7 +2333,7 @@
         <v>4.4243592873182117E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -2524,7 +2482,7 @@
         <v>3.8015253525197351E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -2673,7 +2631,7 @@
         <v>4.1473808251362669E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -2822,7 +2780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -2971,7 +2929,7 @@
         <v>4.1041096075720387E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -3120,12 +3078,12 @@
         <v>5.0142731045712066E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -3133,7 +3091,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -3141,7 +3099,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -3149,7 +3107,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -3157,12 +3115,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>2015</v>
       </c>
@@ -3272,7 +3230,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -3385,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -3498,7 +3456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -3647,7 +3605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -3802,23 +3760,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AK11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:AK7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -3931,7 +3887,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4080,7 +4036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4229,7 +4185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -4378,7 +4334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -4527,7 +4483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -4676,156 +4632,156 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7">
-        <f>MAX(Calcs!B35,0)*(About!$B$27/About!$B$28)</f>
-        <v>2.2046307760970705E-5</v>
+        <f>MAX(Calcs!B35,0)</f>
+        <v>1.4983336005860395E-5</v>
       </c>
       <c r="C7">
-        <f>MAX(Calcs!C35,0)*(About!$B$27/About!$B$28)</f>
-        <v>2.2896310773321701E-5</v>
+        <f>MAX(Calcs!C35,0)</f>
+        <v>1.5561023702055728E-5</v>
       </c>
       <c r="D7">
-        <f>MAX(Calcs!D35,0)*(About!$B$27/About!$B$28)</f>
-        <v>2.2764305118478519E-5</v>
+        <f>MAX(Calcs!D35,0)</f>
+        <v>1.547130867572871E-5</v>
       </c>
       <c r="E7">
-        <f>MAX(Calcs!E35,0)*(About!$B$27/About!$B$28)</f>
-        <v>2.2324776114249655E-5</v>
+        <f>MAX(Calcs!E35,0)</f>
+        <v>1.5172591501583976E-5</v>
       </c>
       <c r="F7">
-        <f>MAX(Calcs!F35,0)*(About!$B$27/About!$B$28)</f>
-        <v>2.0977331877510539E-5</v>
+        <f>MAX(Calcs!F35,0)</f>
+        <v>1.4256827738911485E-5</v>
       </c>
       <c r="G7">
-        <f>MAX(Calcs!G35,0)*(About!$B$27/About!$B$28)</f>
-        <v>1.9835856447224374E-5</v>
+        <f>MAX(Calcs!G35,0)</f>
+        <v>1.3481046592252095E-5</v>
       </c>
       <c r="H7">
-        <f>MAX(Calcs!H35,0)*(About!$B$27/About!$B$28)</f>
-        <v>1.8662701161938794E-5</v>
+        <f>MAX(Calcs!H35,0)</f>
+        <v>1.2683734860189488E-5</v>
       </c>
       <c r="I7">
-        <f>MAX(Calcs!I35,0)*(About!$B$27/About!$B$28)</f>
-        <v>1.696910103044896E-5</v>
+        <f>MAX(Calcs!I35,0)</f>
+        <v>1.153271310612484E-5</v>
       </c>
       <c r="J7">
-        <f>MAX(Calcs!J35,0)*(About!$B$27/About!$B$28)</f>
-        <v>1.4952314957767624E-5</v>
+        <f>MAX(Calcs!J35,0)</f>
+        <v>1.0162044434229573E-5</v>
       </c>
       <c r="K7">
-        <f>MAX(Calcs!K35,0)*(About!$B$27/About!$B$28)</f>
-        <v>1.5131594209421796E-5</v>
+        <f>MAX(Calcs!K35,0)</f>
+        <v>1.0283888023439061E-5</v>
       </c>
       <c r="L7">
-        <f>MAX(Calcs!L35,0)*(About!$B$27/About!$B$28)</f>
-        <v>1.4950041545764871E-5</v>
+        <f>MAX(Calcs!L35,0)</f>
+        <v>1.0160499354831865E-5</v>
       </c>
       <c r="M7">
-        <f>MAX(Calcs!M35,0)*(About!$B$27/About!$B$28)</f>
-        <v>1.4754822261330416E-5</v>
+        <f>MAX(Calcs!M35,0)</f>
+        <v>1.0027822438351394E-5</v>
       </c>
       <c r="N7">
-        <f>MAX(Calcs!N35,0)*(About!$B$27/About!$B$28)</f>
-        <v>1.454813126778423E-5</v>
+        <f>MAX(Calcs!N35,0)</f>
+        <v>9.8873490021975999E-6</v>
       </c>
       <c r="O7">
-        <f>MAX(Calcs!O35,0)*(About!$B$27/About!$B$28)</f>
-        <v>1.404997087133622E-5</v>
+        <f>MAX(Calcs!O35,0)</f>
+        <v>9.5487841646873881E-6</v>
       </c>
       <c r="P7">
-        <f>MAX(Calcs!P35,0)*(About!$B$27/About!$B$28)</f>
-        <v>1.4022621873444657E-5</v>
+        <f>MAX(Calcs!P35,0)</f>
+        <v>9.5301969604591001E-6</v>
       </c>
       <c r="Q7">
-        <f>MAX(Calcs!Q35,0)*(About!$B$27/About!$B$28)</f>
-        <v>1.3618696840675604E-5</v>
+        <f>MAX(Calcs!Q35,0)</f>
+        <v>9.2556773196750223E-6</v>
       </c>
       <c r="R7">
-        <f>MAX(Calcs!R35,0)*(About!$B$27/About!$B$28)</f>
-        <v>1.5456579120121188E-5</v>
+        <f>MAX(Calcs!R35,0)</f>
+        <v>1.050475757523149E-5</v>
       </c>
       <c r="S7">
-        <f>MAX(Calcs!S35,0)*(About!$B$27/About!$B$28)</f>
-        <v>1.5062361394803075E-5</v>
+        <f>MAX(Calcs!S35,0)</f>
+        <v>1.0236835313510908E-5</v>
       </c>
       <c r="T7">
-        <f>MAX(Calcs!T35,0)*(About!$B$27/About!$B$28)</f>
-        <v>1.4423628320783514E-5</v>
+        <f>MAX(Calcs!T35,0)</f>
+        <v>9.8027330425159485E-6</v>
       </c>
       <c r="U7">
-        <f>MAX(Calcs!U35,0)*(About!$B$27/About!$B$28)</f>
-        <v>1.3574878323049593E-5</v>
+        <f>MAX(Calcs!U35,0)</f>
+        <v>9.2258969328643323E-6</v>
       </c>
       <c r="V7">
-        <f>MAX(Calcs!V35,0)*(About!$B$27/About!$B$28)</f>
-        <v>1.4615200152800019E-5</v>
+        <f>MAX(Calcs!V35,0)</f>
+        <v>9.9329310402706153E-6</v>
       </c>
       <c r="W7">
-        <f>MAX(Calcs!W35,0)*(About!$B$27/About!$B$28)</f>
-        <v>1.3506522979466259E-5</v>
+        <f>MAX(Calcs!W35,0)</f>
+        <v>9.1794405787296826E-6</v>
       </c>
       <c r="X7">
-        <f>MAX(Calcs!X35,0)*(About!$B$27/About!$B$28)</f>
-        <v>1.1818678393280209E-5</v>
+        <f>MAX(Calcs!X35,0)</f>
+        <v>8.0323304669281553E-6</v>
       </c>
       <c r="Y7">
-        <f>MAX(Calcs!Y35,0)*(About!$B$27/About!$B$28)</f>
-        <v>9.510332398332658E-6</v>
+        <f>MAX(Calcs!Y35,0)</f>
+        <v>6.4635088739849921E-6</v>
       </c>
       <c r="Z7">
-        <f>MAX(Calcs!Z35,0)*(About!$B$27/About!$B$28)</f>
-        <v>9.4458929703134261E-6</v>
+        <f>MAX(Calcs!Z35,0)</f>
+        <v>6.4197138942311997E-6</v>
       </c>
       <c r="AA7">
-        <f>MAX(Calcs!AA35,0)*(About!$B$27/About!$B$28)</f>
-        <v>7.0249498781564455E-6</v>
+        <f>MAX(Calcs!AA35,0)</f>
+        <v>4.7743679163858121E-6</v>
       </c>
       <c r="AB7">
-        <f>MAX(Calcs!AB35,0)*(About!$B$27/About!$B$28)</f>
-        <v>5.4462970581917606E-6</v>
+        <f>MAX(Calcs!AB35,0)</f>
+        <v>3.7014678237905137E-6</v>
       </c>
       <c r="AC7">
-        <f>MAX(Calcs!AC35,0)*(About!$B$27/About!$B$28)</f>
-        <v>8.0643279913759103E-6</v>
+        <f>MAX(Calcs!AC35,0)</f>
+        <v>5.4807606455608285E-6</v>
       </c>
       <c r="AD7">
-        <f>MAX(Calcs!AD35,0)*(About!$B$27/About!$B$28)</f>
-        <v>5.077881403045554E-6</v>
+        <f>MAX(Calcs!AD35,0)</f>
+        <v>3.4510814275411062E-6</v>
       </c>
       <c r="AE7">
-        <f>MAX(Calcs!AE35,0)*(About!$B$27/About!$B$28)</f>
+        <f>MAX(Calcs!AE35,0)</f>
         <v>0</v>
       </c>
       <c r="AF7">
-        <f>MAX(Calcs!AF35,0)*(About!$B$27/About!$B$28)</f>
+        <f>MAX(Calcs!AF35,0)</f>
         <v>0</v>
       </c>
       <c r="AG7">
-        <f>MAX(Calcs!AG35,0)*(About!$B$27/About!$B$28)</f>
+        <f>MAX(Calcs!AG35,0)</f>
         <v>0</v>
       </c>
       <c r="AH7">
-        <f>MAX(Calcs!AH35,0)*(About!$B$27/About!$B$28)</f>
+        <f>MAX(Calcs!AH35,0)</f>
         <v>0</v>
       </c>
       <c r="AI7">
-        <f>MAX(Calcs!AI35,0)*(About!$B$27/About!$B$28)</f>
+        <f>MAX(Calcs!AI35,0)</f>
         <v>0</v>
       </c>
       <c r="AJ7">
-        <f>MAX(Calcs!AJ35,0)*(About!$B$27/About!$B$28)</f>
+        <f>MAX(Calcs!AJ35,0)</f>
         <v>0</v>
       </c>
       <c r="AK7">
-        <f>MAX(Calcs!AK35,0)*(About!$B$27/About!$B$28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+        <f>MAX(Calcs!AK35,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -4974,7 +4930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -5123,7 +5079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -5272,7 +5228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>

--- a/InputData/trans/ICtPSFfL/Incremental Cost to Produce Substitute Fuel for LCFS.xlsx
+++ b/InputData/trans/ICtPSFfL/Incremental Cost to Produce Substitute Fuel for LCFS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\ICtPSFfL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://energyinnovation.sharepoint.com/sites/EUEPSModeling/Shared Documents/InputData_EI+Agora/trans/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C4D91B-AD95-4FC1-8381-56F75EF0F753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13800"/>
+    <workbookView xWindow="-34410" yWindow="-1770" windowWidth="21570" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -28,17 +29,100 @@
     <definedName name="nonlignite_multiplier">#REF!</definedName>
     <definedName name="use_lifecycle_biofuel_EIs">[1]About!$A$61</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="46">
+  <si>
+    <t>ICtPSFfL Incremental Cost to Produce Substitute Fuel for LCFS</t>
+  </si>
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>Fuel Production Costs</t>
+  </si>
+  <si>
+    <t>E3 Pathways</t>
+  </si>
+  <si>
+    <t>Weighted Average Delivered Energy Costs</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>This varibale calculates the incremental fuel production cost from switching from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conventional fuels to LCFS substitute fuels. In Pathways, conventional ethanol </t>
+  </si>
+  <si>
+    <t>has the same price as gasoline, so it has no incremental cost. Electricity credits</t>
+  </si>
+  <si>
+    <t>are typically delivered to electric charging station owners, and there is no incremental</t>
+  </si>
+  <si>
+    <t>cost of electricity production. Similarly, in Pathways the delivered natural gas prices</t>
+  </si>
+  <si>
+    <t>are all below the gasoline price, so we use a value of zero. Only renewable diesel,</t>
+  </si>
+  <si>
+    <t>which we use as the substitute fuel for petroleum diesel, has an incremental cost</t>
+  </si>
+  <si>
+    <t>increase. Note also that per Pathways, this value drops over time, eventually falling so far</t>
+  </si>
+  <si>
+    <t>that it costs lets than traditional diesel to produce, though we limit our incremental</t>
+  </si>
+  <si>
+    <t>costs to a low value of zero.</t>
+  </si>
+  <si>
+    <t>Conventional fuels under the LCFS (petroleum gasoline, petroleum diesel, and</t>
+  </si>
+  <si>
+    <t>jet fuel) should always have a value of zero in this variable.</t>
+  </si>
+  <si>
+    <t>Conversion Factor</t>
+  </si>
+  <si>
+    <t>BTU/GJ</t>
+  </si>
+  <si>
+    <t>We adjust for the EU data by the ratio of EU:US pre-tax transportation biofuel costs (see file fuels/BFPaT for the EU and US models).</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>$/GJ</t>
+  </si>
   <si>
     <t>Renewable Diesel</t>
   </si>
@@ -67,13 +151,13 @@
     <t>$/BTU</t>
   </si>
   <si>
-    <t>BTU/GJ</t>
-  </si>
-  <si>
     <t>Reference Fuels</t>
   </si>
   <si>
     <t>electricity</t>
+  </si>
+  <si>
+    <t>petroleum gasoline</t>
   </si>
   <si>
     <t>natural gas</t>
@@ -85,76 +169,16 @@
     <t>biofuel diesel</t>
   </si>
   <si>
-    <t>petroleum gasoline</t>
-  </si>
-  <si>
     <t>petroleum diesel</t>
   </si>
   <si>
     <t>Incremental Costs of Production ($/BTU)</t>
   </si>
   <si>
-    <t>$/GJ</t>
+    <t>Cost ($/BTU)</t>
   </si>
   <si>
     <t>jet fuel</t>
-  </si>
-  <si>
-    <t>Weighted Average Delivered Energy Costs</t>
-  </si>
-  <si>
-    <t>E3 Pathways</t>
-  </si>
-  <si>
-    <t>Fuel Production Costs</t>
-  </si>
-  <si>
-    <t>Source:</t>
-  </si>
-  <si>
-    <t>Notes:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conventional fuels to LCFS substitute fuels. In Pathways, conventional ethanol </t>
-  </si>
-  <si>
-    <t>has the same price as gasoline, so it has no incremental cost. Electricity credits</t>
-  </si>
-  <si>
-    <t>are typically delivered to electric charging station owners, and there is no incremental</t>
-  </si>
-  <si>
-    <t>cost of electricity production. Similarly, in Pathways the delivered natural gas prices</t>
-  </si>
-  <si>
-    <t>are all below the gasoline price, so we use a value of zero. Only renewable diesel,</t>
-  </si>
-  <si>
-    <t>which we use as the substitute fuel for petroleum diesel, has an incremental cost</t>
-  </si>
-  <si>
-    <t>increase. Note also that per Pathways, this value drops over time, eventually falling so far</t>
-  </si>
-  <si>
-    <t>costs to a low value of zero.</t>
-  </si>
-  <si>
-    <t>that it costs lets than traditional diesel to produce, though we limit our incremental</t>
-  </si>
-  <si>
-    <t>This varibale calculates the incremental fuel production cost from switching from</t>
-  </si>
-  <si>
-    <t>Conversion Factor</t>
-  </si>
-  <si>
-    <t>jet fuel) should always have a value of zero in this variable.</t>
-  </si>
-  <si>
-    <t>Conventional fuels under the LCFS (petroleum gasoline, petroleum diesel, and</t>
-  </si>
-  <si>
-    <t>ICtPSFfL Incremental Cost to Produce Substitute Fuel for LCFS</t>
   </si>
   <si>
     <t>heavy or residual fuel oil</t>
@@ -165,14 +189,11 @@
   <si>
     <t>hydrogen</t>
   </si>
-  <si>
-    <t>Cost ($/BTU)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -216,10 +237,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -243,7 +263,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="About"/>
@@ -272,18 +292,7 @@
       <sheetName val="PEI-IFPEI"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="61">
-          <cell r="A61" t="b">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="A160" t="b">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -574,120 +583,143 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>947817.12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27">
+        <v>1.8152570386688024E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="5">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>947817.12</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
+      <c r="B28">
+        <v>1.2337034592036476E-5</v>
       </c>
     </row>
   </sheetData>
@@ -697,23 +729,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>2015</v>
       </c>
@@ -823,9 +855,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>30.8367260296898</v>
@@ -936,9 +968,9 @@
         <v>38.8994534841326</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>30.978814519130498</v>
@@ -1049,15 +1081,15 @@
         <v>47.526138928681398</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>20.2922337992403</v>
@@ -1078,13 +1110,13 @@
         <v>22.145680536501199</v>
       </c>
       <c r="J5" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="K5" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="M5">
         <v>21.3964771206401</v>
@@ -1162,15 +1194,15 @@
         <v>36.031200708728697</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D6">
         <v>32.527466640073698</v>
@@ -1212,72 +1244,72 @@
         <v>33.997588461072702</v>
       </c>
       <c r="Q6" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="R6" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="S6" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="T6" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="U6" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="V6" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="W6" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="X6" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="Y6" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="Z6" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="AA6" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="AB6" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="AC6" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="AD6" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="AE6" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="AF6" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="AG6" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="AH6" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="AI6" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="AJ6" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="AK6">
         <v>41.934834775512002</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>15.357264235821001</v>
@@ -1288,7 +1320,7 @@
       <c r="D7">
         <v>18.885450227945402</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <v>19.0133949371196</v>
       </c>
       <c r="F7">
@@ -1388,9 +1420,9 @@
         <v>36.031508112322399</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>16.6352636486229</v>
@@ -1501,14 +1533,14 @@
         <v>39.309585492238803</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B10">
         <v>30.8367260296898</v>
@@ -1619,9 +1651,9 @@
         <v>38.8994534841326</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B11">
         <v>30.978814519130498</v>
@@ -1732,14 +1764,14 @@
         <v>47.526138928681398</v>
       </c>
     </row>
-    <row r="13" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <f t="shared" ref="B14:AK14" si="0">B3/btu_per_EJ</f>
@@ -1886,9 +1918,9 @@
         <v>4.1041096075720387E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <f t="shared" ref="B15:AK15" si="1">B4/btu_per_EJ</f>
@@ -2035,9 +2067,9 @@
         <v>5.0142731045712066E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B16" t="e">
         <f t="shared" ref="B16:AK16" si="2">B5/btu_per_EJ</f>
@@ -2184,9 +2216,9 @@
         <v>3.8014929197236589E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B17" t="e">
         <f t="shared" ref="B17:AK17" si="3">B6/btu_per_EJ</f>
@@ -2333,9 +2365,9 @@
         <v>4.4243592873182117E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <f t="shared" ref="B18:AK18" si="4">B7/btu_per_EJ</f>
@@ -2482,9 +2514,9 @@
         <v>3.8015253525197351E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B19">
         <f t="shared" ref="B19:AK19" si="5">B8/btu_per_EJ</f>
@@ -2631,9 +2663,9 @@
         <v>4.1473808251362669E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B20">
         <f t="shared" ref="B20:AK20" si="6">B9/btu_per_EJ</f>
@@ -2780,9 +2812,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <f t="shared" ref="B21:AK21" si="7">B10/btu_per_EJ</f>
@@ -2929,9 +2961,9 @@
         <v>4.1041096075720387E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <f t="shared" ref="B22:AK22" si="8">B11/btu_per_EJ</f>
@@ -3078,49 +3110,49 @@
         <v>5.0142731045712066E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>2015</v>
       </c>
@@ -3230,9 +3262,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3343,9 +3375,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3456,9 +3488,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B34">
         <f>0</f>
@@ -3605,9 +3637,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <f>B21-B19</f>
@@ -3760,23 +3792,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AK11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:AK7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1">
         <v>2015</v>
@@ -3887,9 +3921,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <f>Calcs!B32</f>
@@ -4036,9 +4070,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <f>Calcs!B33</f>
@@ -4185,9 +4219,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <f>0</f>
@@ -4334,9 +4368,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <f>0</f>
@@ -4483,9 +4517,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <f>Calcs!B34</f>
@@ -4632,158 +4666,158 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B7">
-        <f>MAX(Calcs!B35,0)</f>
-        <v>1.4983336005860395E-5</v>
+        <f>MAX(Calcs!B35,0)*(About!$B$27/About!$B$28)</f>
+        <v>2.2046307760970705E-5</v>
       </c>
       <c r="C7">
-        <f>MAX(Calcs!C35,0)</f>
-        <v>1.5561023702055728E-5</v>
+        <f>MAX(Calcs!C35,0)*(About!$B$27/About!$B$28)</f>
+        <v>2.2896310773321701E-5</v>
       </c>
       <c r="D7">
-        <f>MAX(Calcs!D35,0)</f>
-        <v>1.547130867572871E-5</v>
+        <f>MAX(Calcs!D35,0)*(About!$B$27/About!$B$28)</f>
+        <v>2.2764305118478519E-5</v>
       </c>
       <c r="E7">
-        <f>MAX(Calcs!E35,0)</f>
-        <v>1.5172591501583976E-5</v>
+        <f>MAX(Calcs!E35,0)*(About!$B$27/About!$B$28)</f>
+        <v>2.2324776114249655E-5</v>
       </c>
       <c r="F7">
-        <f>MAX(Calcs!F35,0)</f>
-        <v>1.4256827738911485E-5</v>
+        <f>MAX(Calcs!F35,0)*(About!$B$27/About!$B$28)</f>
+        <v>2.0977331877510539E-5</v>
       </c>
       <c r="G7">
-        <f>MAX(Calcs!G35,0)</f>
-        <v>1.3481046592252095E-5</v>
+        <f>MAX(Calcs!G35,0)*(About!$B$27/About!$B$28)</f>
+        <v>1.9835856447224374E-5</v>
       </c>
       <c r="H7">
-        <f>MAX(Calcs!H35,0)</f>
-        <v>1.2683734860189488E-5</v>
+        <f>MAX(Calcs!H35,0)*(About!$B$27/About!$B$28)</f>
+        <v>1.8662701161938794E-5</v>
       </c>
       <c r="I7">
-        <f>MAX(Calcs!I35,0)</f>
-        <v>1.153271310612484E-5</v>
+        <f>MAX(Calcs!I35,0)*(About!$B$27/About!$B$28)</f>
+        <v>1.696910103044896E-5</v>
       </c>
       <c r="J7">
-        <f>MAX(Calcs!J35,0)</f>
-        <v>1.0162044434229573E-5</v>
+        <f>MAX(Calcs!J35,0)*(About!$B$27/About!$B$28)</f>
+        <v>1.4952314957767624E-5</v>
       </c>
       <c r="K7">
-        <f>MAX(Calcs!K35,0)</f>
-        <v>1.0283888023439061E-5</v>
+        <f>MAX(Calcs!K35,0)*(About!$B$27/About!$B$28)</f>
+        <v>1.5131594209421796E-5</v>
       </c>
       <c r="L7">
-        <f>MAX(Calcs!L35,0)</f>
-        <v>1.0160499354831865E-5</v>
+        <f>MAX(Calcs!L35,0)*(About!$B$27/About!$B$28)</f>
+        <v>1.4950041545764871E-5</v>
       </c>
       <c r="M7">
-        <f>MAX(Calcs!M35,0)</f>
-        <v>1.0027822438351394E-5</v>
+        <f>MAX(Calcs!M35,0)*(About!$B$27/About!$B$28)</f>
+        <v>1.4754822261330416E-5</v>
       </c>
       <c r="N7">
-        <f>MAX(Calcs!N35,0)</f>
-        <v>9.8873490021975999E-6</v>
+        <f>MAX(Calcs!N35,0)*(About!$B$27/About!$B$28)</f>
+        <v>1.454813126778423E-5</v>
       </c>
       <c r="O7">
-        <f>MAX(Calcs!O35,0)</f>
-        <v>9.5487841646873881E-6</v>
+        <f>MAX(Calcs!O35,0)*(About!$B$27/About!$B$28)</f>
+        <v>1.404997087133622E-5</v>
       </c>
       <c r="P7">
-        <f>MAX(Calcs!P35,0)</f>
-        <v>9.5301969604591001E-6</v>
+        <f>MAX(Calcs!P35,0)*(About!$B$27/About!$B$28)</f>
+        <v>1.4022621873444657E-5</v>
       </c>
       <c r="Q7">
-        <f>MAX(Calcs!Q35,0)</f>
-        <v>9.2556773196750223E-6</v>
+        <f>MAX(Calcs!Q35,0)*(About!$B$27/About!$B$28)</f>
+        <v>1.3618696840675604E-5</v>
       </c>
       <c r="R7">
-        <f>MAX(Calcs!R35,0)</f>
-        <v>1.050475757523149E-5</v>
+        <f>MAX(Calcs!R35,0)*(About!$B$27/About!$B$28)</f>
+        <v>1.5456579120121188E-5</v>
       </c>
       <c r="S7">
-        <f>MAX(Calcs!S35,0)</f>
-        <v>1.0236835313510908E-5</v>
+        <f>MAX(Calcs!S35,0)*(About!$B$27/About!$B$28)</f>
+        <v>1.5062361394803075E-5</v>
       </c>
       <c r="T7">
-        <f>MAX(Calcs!T35,0)</f>
-        <v>9.8027330425159485E-6</v>
+        <f>MAX(Calcs!T35,0)*(About!$B$27/About!$B$28)</f>
+        <v>1.4423628320783514E-5</v>
       </c>
       <c r="U7">
-        <f>MAX(Calcs!U35,0)</f>
-        <v>9.2258969328643323E-6</v>
+        <f>MAX(Calcs!U35,0)*(About!$B$27/About!$B$28)</f>
+        <v>1.3574878323049593E-5</v>
       </c>
       <c r="V7">
-        <f>MAX(Calcs!V35,0)</f>
-        <v>9.9329310402706153E-6</v>
+        <f>MAX(Calcs!V35,0)*(About!$B$27/About!$B$28)</f>
+        <v>1.4615200152800019E-5</v>
       </c>
       <c r="W7">
-        <f>MAX(Calcs!W35,0)</f>
-        <v>9.1794405787296826E-6</v>
+        <f>MAX(Calcs!W35,0)*(About!$B$27/About!$B$28)</f>
+        <v>1.3506522979466259E-5</v>
       </c>
       <c r="X7">
-        <f>MAX(Calcs!X35,0)</f>
-        <v>8.0323304669281553E-6</v>
+        <f>MAX(Calcs!X35,0)*(About!$B$27/About!$B$28)</f>
+        <v>1.1818678393280209E-5</v>
       </c>
       <c r="Y7">
-        <f>MAX(Calcs!Y35,0)</f>
-        <v>6.4635088739849921E-6</v>
+        <f>MAX(Calcs!Y35,0)*(About!$B$27/About!$B$28)</f>
+        <v>9.510332398332658E-6</v>
       </c>
       <c r="Z7">
-        <f>MAX(Calcs!Z35,0)</f>
-        <v>6.4197138942311997E-6</v>
+        <f>MAX(Calcs!Z35,0)*(About!$B$27/About!$B$28)</f>
+        <v>9.4458929703134261E-6</v>
       </c>
       <c r="AA7">
-        <f>MAX(Calcs!AA35,0)</f>
-        <v>4.7743679163858121E-6</v>
+        <f>MAX(Calcs!AA35,0)*(About!$B$27/About!$B$28)</f>
+        <v>7.0249498781564455E-6</v>
       </c>
       <c r="AB7">
-        <f>MAX(Calcs!AB35,0)</f>
-        <v>3.7014678237905137E-6</v>
+        <f>MAX(Calcs!AB35,0)*(About!$B$27/About!$B$28)</f>
+        <v>5.4462970581917606E-6</v>
       </c>
       <c r="AC7">
-        <f>MAX(Calcs!AC35,0)</f>
-        <v>5.4807606455608285E-6</v>
+        <f>MAX(Calcs!AC35,0)*(About!$B$27/About!$B$28)</f>
+        <v>8.0643279913759103E-6</v>
       </c>
       <c r="AD7">
-        <f>MAX(Calcs!AD35,0)</f>
-        <v>3.4510814275411062E-6</v>
+        <f>MAX(Calcs!AD35,0)*(About!$B$27/About!$B$28)</f>
+        <v>5.077881403045554E-6</v>
       </c>
       <c r="AE7">
-        <f>MAX(Calcs!AE35,0)</f>
+        <f>MAX(Calcs!AE35,0)*(About!$B$27/About!$B$28)</f>
         <v>0</v>
       </c>
       <c r="AF7">
-        <f>MAX(Calcs!AF35,0)</f>
+        <f>MAX(Calcs!AF35,0)*(About!$B$27/About!$B$28)</f>
         <v>0</v>
       </c>
       <c r="AG7">
-        <f>MAX(Calcs!AG35,0)</f>
+        <f>MAX(Calcs!AG35,0)*(About!$B$27/About!$B$28)</f>
         <v>0</v>
       </c>
       <c r="AH7">
-        <f>MAX(Calcs!AH35,0)</f>
+        <f>MAX(Calcs!AH35,0)*(About!$B$27/About!$B$28)</f>
         <v>0</v>
       </c>
       <c r="AI7">
-        <f>MAX(Calcs!AI35,0)</f>
+        <f>MAX(Calcs!AI35,0)*(About!$B$27/About!$B$28)</f>
         <v>0</v>
       </c>
       <c r="AJ7">
-        <f>MAX(Calcs!AJ35,0)</f>
+        <f>MAX(Calcs!AJ35,0)*(About!$B$27/About!$B$28)</f>
         <v>0</v>
       </c>
       <c r="AK7">
-        <f>MAX(Calcs!AK35,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+        <f>MAX(Calcs!AK35,0)*(About!$B$27/About!$B$28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <f>0</f>
@@ -4930,9 +4964,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <f>0</f>
@@ -5079,9 +5113,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <f>0</f>
@@ -5228,9 +5262,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <f>0</f>
@@ -5380,4 +5414,285 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
+    <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <xsd:import namespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="00484652-42e1-479e-92f4-fb0efddcdf60" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eca5b831-c3dc-41cf-bd85-218b82cecb21" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c5b79d03-3bfd-4c46-9947-056a2403f6c9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB69F876-156E-45AD-8F58-E4AC32003198}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{839E348A-BDBC-4B46-AFF0-E2F82CBDFAE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BDE924E-E480-471E-9A0F-F535376B5487}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/trans/ICtPSFfL/Incremental Cost to Produce Substitute Fuel for LCFS.xlsx
+++ b/InputData/trans/ICtPSFfL/Incremental Cost to Produce Substitute Fuel for LCFS.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://energyinnovation.sharepoint.com/sites/EUEPSModeling/Shared Documents/InputData_EI+Agora/trans/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\ICtPSFfL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C4D91B-AD95-4FC1-8381-56F75EF0F753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34410" yWindow="-1770" windowWidth="21570" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13800"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -29,100 +28,17 @@
     <definedName name="nonlignite_multiplier">#REF!</definedName>
     <definedName name="use_lifecycle_biofuel_EIs">[1]About!$A$61</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="46">
-  <si>
-    <t>ICtPSFfL Incremental Cost to Produce Substitute Fuel for LCFS</t>
-  </si>
-  <si>
-    <t>Source:</t>
-  </si>
-  <si>
-    <t>Fuel Production Costs</t>
-  </si>
-  <si>
-    <t>E3 Pathways</t>
-  </si>
-  <si>
-    <t>Weighted Average Delivered Energy Costs</t>
-  </si>
-  <si>
-    <t>Notes:</t>
-  </si>
-  <si>
-    <t>This varibale calculates the incremental fuel production cost from switching from</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conventional fuels to LCFS substitute fuels. In Pathways, conventional ethanol </t>
-  </si>
-  <si>
-    <t>has the same price as gasoline, so it has no incremental cost. Electricity credits</t>
-  </si>
-  <si>
-    <t>are typically delivered to electric charging station owners, and there is no incremental</t>
-  </si>
-  <si>
-    <t>cost of electricity production. Similarly, in Pathways the delivered natural gas prices</t>
-  </si>
-  <si>
-    <t>are all below the gasoline price, so we use a value of zero. Only renewable diesel,</t>
-  </si>
-  <si>
-    <t>which we use as the substitute fuel for petroleum diesel, has an incremental cost</t>
-  </si>
-  <si>
-    <t>increase. Note also that per Pathways, this value drops over time, eventually falling so far</t>
-  </si>
-  <si>
-    <t>that it costs lets than traditional diesel to produce, though we limit our incremental</t>
-  </si>
-  <si>
-    <t>costs to a low value of zero.</t>
-  </si>
-  <si>
-    <t>Conventional fuels under the LCFS (petroleum gasoline, petroleum diesel, and</t>
-  </si>
-  <si>
-    <t>jet fuel) should always have a value of zero in this variable.</t>
-  </si>
-  <si>
-    <t>Conversion Factor</t>
-  </si>
-  <si>
-    <t>BTU/GJ</t>
-  </si>
-  <si>
-    <t>We adjust for the EU data by the ratio of EU:US pre-tax transportation biofuel costs (see file fuels/BFPaT for the EU and US models).</t>
-  </si>
-  <si>
-    <t>EU</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>$/GJ</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
   <si>
     <t>Renewable Diesel</t>
   </si>
@@ -151,13 +67,13 @@
     <t>$/BTU</t>
   </si>
   <si>
+    <t>BTU/GJ</t>
+  </si>
+  <si>
     <t>Reference Fuels</t>
   </si>
   <si>
     <t>electricity</t>
-  </si>
-  <si>
-    <t>petroleum gasoline</t>
   </si>
   <si>
     <t>natural gas</t>
@@ -169,16 +85,76 @@
     <t>biofuel diesel</t>
   </si>
   <si>
+    <t>petroleum gasoline</t>
+  </si>
+  <si>
     <t>petroleum diesel</t>
   </si>
   <si>
     <t>Incremental Costs of Production ($/BTU)</t>
   </si>
   <si>
-    <t>Cost ($/BTU)</t>
+    <t>$/GJ</t>
   </si>
   <si>
     <t>jet fuel</t>
+  </si>
+  <si>
+    <t>Weighted Average Delivered Energy Costs</t>
+  </si>
+  <si>
+    <t>E3 Pathways</t>
+  </si>
+  <si>
+    <t>Fuel Production Costs</t>
+  </si>
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conventional fuels to LCFS substitute fuels. In Pathways, conventional ethanol </t>
+  </si>
+  <si>
+    <t>has the same price as gasoline, so it has no incremental cost. Electricity credits</t>
+  </si>
+  <si>
+    <t>are typically delivered to electric charging station owners, and there is no incremental</t>
+  </si>
+  <si>
+    <t>cost of electricity production. Similarly, in Pathways the delivered natural gas prices</t>
+  </si>
+  <si>
+    <t>are all below the gasoline price, so we use a value of zero. Only renewable diesel,</t>
+  </si>
+  <si>
+    <t>which we use as the substitute fuel for petroleum diesel, has an incremental cost</t>
+  </si>
+  <si>
+    <t>increase. Note also that per Pathways, this value drops over time, eventually falling so far</t>
+  </si>
+  <si>
+    <t>costs to a low value of zero.</t>
+  </si>
+  <si>
+    <t>that it costs lets than traditional diesel to produce, though we limit our incremental</t>
+  </si>
+  <si>
+    <t>This varibale calculates the incremental fuel production cost from switching from</t>
+  </si>
+  <si>
+    <t>Conversion Factor</t>
+  </si>
+  <si>
+    <t>jet fuel) should always have a value of zero in this variable.</t>
+  </si>
+  <si>
+    <t>Conventional fuels under the LCFS (petroleum gasoline, petroleum diesel, and</t>
+  </si>
+  <si>
+    <t>ICtPSFfL Incremental Cost to Produce Substitute Fuel for LCFS</t>
   </si>
   <si>
     <t>heavy or residual fuel oil</t>
@@ -189,11 +165,14 @@
   <si>
     <t>hydrogen</t>
   </si>
+  <si>
+    <t>Cost ($/BTU)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -237,9 +216,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -263,7 +243,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="About"/>
@@ -292,7 +272,18 @@
       <sheetName val="PEI-IFPEI"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="61">
+          <cell r="A61" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="A160" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -583,143 +574,120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="5">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>947817.12</v>
+      </c>
+      <c r="B24" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
-        <v>947817.12</v>
-      </c>
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27">
-        <v>1.8152570386688024E-5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28">
-        <v>1.2337034592036476E-5</v>
       </c>
     </row>
   </sheetData>
@@ -729,23 +697,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.453125" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>2015</v>
       </c>
@@ -855,9 +823,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>30.8367260296898</v>
@@ -968,9 +936,9 @@
         <v>38.8994534841326</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>30.978814519130498</v>
@@ -1081,15 +1049,15 @@
         <v>47.526138928681398</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>20.2922337992403</v>
@@ -1110,13 +1078,13 @@
         <v>22.145680536501199</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="M5">
         <v>21.3964771206401</v>
@@ -1194,15 +1162,15 @@
         <v>36.031200708728697</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>32.527466640073698</v>
@@ -1244,72 +1212,72 @@
         <v>33.997588461072702</v>
       </c>
       <c r="Q6" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="R6" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="S6" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="T6" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="U6" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="V6" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="W6" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="X6" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="Y6" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="Z6" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="AA6" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="AB6" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="AC6" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="AD6" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="AF6" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="AG6" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="AH6" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="AI6" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="AJ6" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="AK6">
         <v>41.934834775512002</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>15.357264235821001</v>
@@ -1320,7 +1288,7 @@
       <c r="D7">
         <v>18.885450227945402</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>19.0133949371196</v>
       </c>
       <c r="F7">
@@ -1420,9 +1388,9 @@
         <v>36.031508112322399</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>16.6352636486229</v>
@@ -1533,14 +1501,14 @@
         <v>39.309585492238803</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B10">
         <v>30.8367260296898</v>
@@ -1651,9 +1619,9 @@
         <v>38.8994534841326</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>30.978814519130498</v>
@@ -1764,14 +1732,14 @@
         <v>47.526138928681398</v>
       </c>
     </row>
-    <row r="13" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B14">
         <f t="shared" ref="B14:AK14" si="0">B3/btu_per_EJ</f>
@@ -1918,9 +1886,9 @@
         <v>4.1041096075720387E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B15">
         <f t="shared" ref="B15:AK15" si="1">B4/btu_per_EJ</f>
@@ -2067,9 +2035,9 @@
         <v>5.0142731045712066E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B16" t="e">
         <f t="shared" ref="B16:AK16" si="2">B5/btu_per_EJ</f>
@@ -2216,9 +2184,9 @@
         <v>3.8014929197236589E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B17" t="e">
         <f t="shared" ref="B17:AK17" si="3">B6/btu_per_EJ</f>
@@ -2365,9 +2333,9 @@
         <v>4.4243592873182117E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B18">
         <f t="shared" ref="B18:AK18" si="4">B7/btu_per_EJ</f>
@@ -2514,9 +2482,9 @@
         <v>3.8015253525197351E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B19">
         <f t="shared" ref="B19:AK19" si="5">B8/btu_per_EJ</f>
@@ -2663,9 +2631,9 @@
         <v>4.1473808251362669E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B20">
         <f t="shared" ref="B20:AK20" si="6">B9/btu_per_EJ</f>
@@ -2812,9 +2780,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B21">
         <f t="shared" ref="B21:AK21" si="7">B10/btu_per_EJ</f>
@@ -2961,9 +2929,9 @@
         <v>4.1041096075720387E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B22">
         <f t="shared" ref="B22:AK22" si="8">B11/btu_per_EJ</f>
@@ -3110,49 +3078,49 @@
         <v>5.0142731045712066E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>2015</v>
       </c>
@@ -3262,9 +3230,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3375,9 +3343,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3488,9 +3456,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B34">
         <f>0</f>
@@ -3637,9 +3605,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B35">
         <f>B21-B19</f>
@@ -3792,25 +3760,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AK11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:AK7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1">
         <v>2015</v>
@@ -3921,9 +3887,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <f>Calcs!B32</f>
@@ -4070,9 +4036,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <f>Calcs!B33</f>
@@ -4219,9 +4185,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <f>0</f>
@@ -4368,9 +4334,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <f>0</f>
@@ -4517,9 +4483,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <f>Calcs!B34</f>
@@ -4666,158 +4632,158 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <f>MAX(Calcs!B35,0)*(About!$B$27/About!$B$28)</f>
-        <v>2.2046307760970705E-5</v>
+        <f>MAX(Calcs!B35,0)</f>
+        <v>1.4983336005860395E-5</v>
       </c>
       <c r="C7">
-        <f>MAX(Calcs!C35,0)*(About!$B$27/About!$B$28)</f>
-        <v>2.2896310773321701E-5</v>
+        <f>MAX(Calcs!C35,0)</f>
+        <v>1.5561023702055728E-5</v>
       </c>
       <c r="D7">
-        <f>MAX(Calcs!D35,0)*(About!$B$27/About!$B$28)</f>
-        <v>2.2764305118478519E-5</v>
+        <f>MAX(Calcs!D35,0)</f>
+        <v>1.547130867572871E-5</v>
       </c>
       <c r="E7">
-        <f>MAX(Calcs!E35,0)*(About!$B$27/About!$B$28)</f>
-        <v>2.2324776114249655E-5</v>
+        <f>MAX(Calcs!E35,0)</f>
+        <v>1.5172591501583976E-5</v>
       </c>
       <c r="F7">
-        <f>MAX(Calcs!F35,0)*(About!$B$27/About!$B$28)</f>
-        <v>2.0977331877510539E-5</v>
+        <f>MAX(Calcs!F35,0)</f>
+        <v>1.4256827738911485E-5</v>
       </c>
       <c r="G7">
-        <f>MAX(Calcs!G35,0)*(About!$B$27/About!$B$28)</f>
-        <v>1.9835856447224374E-5</v>
+        <f>MAX(Calcs!G35,0)</f>
+        <v>1.3481046592252095E-5</v>
       </c>
       <c r="H7">
-        <f>MAX(Calcs!H35,0)*(About!$B$27/About!$B$28)</f>
-        <v>1.8662701161938794E-5</v>
+        <f>MAX(Calcs!H35,0)</f>
+        <v>1.2683734860189488E-5</v>
       </c>
       <c r="I7">
-        <f>MAX(Calcs!I35,0)*(About!$B$27/About!$B$28)</f>
-        <v>1.696910103044896E-5</v>
+        <f>MAX(Calcs!I35,0)</f>
+        <v>1.153271310612484E-5</v>
       </c>
       <c r="J7">
-        <f>MAX(Calcs!J35,0)*(About!$B$27/About!$B$28)</f>
-        <v>1.4952314957767624E-5</v>
+        <f>MAX(Calcs!J35,0)</f>
+        <v>1.0162044434229573E-5</v>
       </c>
       <c r="K7">
-        <f>MAX(Calcs!K35,0)*(About!$B$27/About!$B$28)</f>
-        <v>1.5131594209421796E-5</v>
+        <f>MAX(Calcs!K35,0)</f>
+        <v>1.0283888023439061E-5</v>
       </c>
       <c r="L7">
-        <f>MAX(Calcs!L35,0)*(About!$B$27/About!$B$28)</f>
-        <v>1.4950041545764871E-5</v>
+        <f>MAX(Calcs!L35,0)</f>
+        <v>1.0160499354831865E-5</v>
       </c>
       <c r="M7">
-        <f>MAX(Calcs!M35,0)*(About!$B$27/About!$B$28)</f>
-        <v>1.4754822261330416E-5</v>
+        <f>MAX(Calcs!M35,0)</f>
+        <v>1.0027822438351394E-5</v>
       </c>
       <c r="N7">
-        <f>MAX(Calcs!N35,0)*(About!$B$27/About!$B$28)</f>
-        <v>1.454813126778423E-5</v>
+        <f>MAX(Calcs!N35,0)</f>
+        <v>9.8873490021975999E-6</v>
       </c>
       <c r="O7">
-        <f>MAX(Calcs!O35,0)*(About!$B$27/About!$B$28)</f>
-        <v>1.404997087133622E-5</v>
+        <f>MAX(Calcs!O35,0)</f>
+        <v>9.5487841646873881E-6</v>
       </c>
       <c r="P7">
-        <f>MAX(Calcs!P35,0)*(About!$B$27/About!$B$28)</f>
-        <v>1.4022621873444657E-5</v>
+        <f>MAX(Calcs!P35,0)</f>
+        <v>9.5301969604591001E-6</v>
       </c>
       <c r="Q7">
-        <f>MAX(Calcs!Q35,0)*(About!$B$27/About!$B$28)</f>
-        <v>1.3618696840675604E-5</v>
+        <f>MAX(Calcs!Q35,0)</f>
+        <v>9.2556773196750223E-6</v>
       </c>
       <c r="R7">
-        <f>MAX(Calcs!R35,0)*(About!$B$27/About!$B$28)</f>
-        <v>1.5456579120121188E-5</v>
+        <f>MAX(Calcs!R35,0)</f>
+        <v>1.050475757523149E-5</v>
       </c>
       <c r="S7">
-        <f>MAX(Calcs!S35,0)*(About!$B$27/About!$B$28)</f>
-        <v>1.5062361394803075E-5</v>
+        <f>MAX(Calcs!S35,0)</f>
+        <v>1.0236835313510908E-5</v>
       </c>
       <c r="T7">
-        <f>MAX(Calcs!T35,0)*(About!$B$27/About!$B$28)</f>
-        <v>1.4423628320783514E-5</v>
+        <f>MAX(Calcs!T35,0)</f>
+        <v>9.8027330425159485E-6</v>
       </c>
       <c r="U7">
-        <f>MAX(Calcs!U35,0)*(About!$B$27/About!$B$28)</f>
-        <v>1.3574878323049593E-5</v>
+        <f>MAX(Calcs!U35,0)</f>
+        <v>9.2258969328643323E-6</v>
       </c>
       <c r="V7">
-        <f>MAX(Calcs!V35,0)*(About!$B$27/About!$B$28)</f>
-        <v>1.4615200152800019E-5</v>
+        <f>MAX(Calcs!V35,0)</f>
+        <v>9.9329310402706153E-6</v>
       </c>
       <c r="W7">
-        <f>MAX(Calcs!W35,0)*(About!$B$27/About!$B$28)</f>
-        <v>1.3506522979466259E-5</v>
+        <f>MAX(Calcs!W35,0)</f>
+        <v>9.1794405787296826E-6</v>
       </c>
       <c r="X7">
-        <f>MAX(Calcs!X35,0)*(About!$B$27/About!$B$28)</f>
-        <v>1.1818678393280209E-5</v>
+        <f>MAX(Calcs!X35,0)</f>
+        <v>8.0323304669281553E-6</v>
       </c>
       <c r="Y7">
-        <f>MAX(Calcs!Y35,0)*(About!$B$27/About!$B$28)</f>
-        <v>9.510332398332658E-6</v>
+        <f>MAX(Calcs!Y35,0)</f>
+        <v>6.4635088739849921E-6</v>
       </c>
       <c r="Z7">
-        <f>MAX(Calcs!Z35,0)*(About!$B$27/About!$B$28)</f>
-        <v>9.4458929703134261E-6</v>
+        <f>MAX(Calcs!Z35,0)</f>
+        <v>6.4197138942311997E-6</v>
       </c>
       <c r="AA7">
-        <f>MAX(Calcs!AA35,0)*(About!$B$27/About!$B$28)</f>
-        <v>7.0249498781564455E-6</v>
+        <f>MAX(Calcs!AA35,0)</f>
+        <v>4.7743679163858121E-6</v>
       </c>
       <c r="AB7">
-        <f>MAX(Calcs!AB35,0)*(About!$B$27/About!$B$28)</f>
-        <v>5.4462970581917606E-6</v>
+        <f>MAX(Calcs!AB35,0)</f>
+        <v>3.7014678237905137E-6</v>
       </c>
       <c r="AC7">
-        <f>MAX(Calcs!AC35,0)*(About!$B$27/About!$B$28)</f>
-        <v>8.0643279913759103E-6</v>
+        <f>MAX(Calcs!AC35,0)</f>
+        <v>5.4807606455608285E-6</v>
       </c>
       <c r="AD7">
-        <f>MAX(Calcs!AD35,0)*(About!$B$27/About!$B$28)</f>
-        <v>5.077881403045554E-6</v>
+        <f>MAX(Calcs!AD35,0)</f>
+        <v>3.4510814275411062E-6</v>
       </c>
       <c r="AE7">
-        <f>MAX(Calcs!AE35,0)*(About!$B$27/About!$B$28)</f>
+        <f>MAX(Calcs!AE35,0)</f>
         <v>0</v>
       </c>
       <c r="AF7">
-        <f>MAX(Calcs!AF35,0)*(About!$B$27/About!$B$28)</f>
+        <f>MAX(Calcs!AF35,0)</f>
         <v>0</v>
       </c>
       <c r="AG7">
-        <f>MAX(Calcs!AG35,0)*(About!$B$27/About!$B$28)</f>
+        <f>MAX(Calcs!AG35,0)</f>
         <v>0</v>
       </c>
       <c r="AH7">
-        <f>MAX(Calcs!AH35,0)*(About!$B$27/About!$B$28)</f>
+        <f>MAX(Calcs!AH35,0)</f>
         <v>0</v>
       </c>
       <c r="AI7">
-        <f>MAX(Calcs!AI35,0)*(About!$B$27/About!$B$28)</f>
+        <f>MAX(Calcs!AI35,0)</f>
         <v>0</v>
       </c>
       <c r="AJ7">
-        <f>MAX(Calcs!AJ35,0)*(About!$B$27/About!$B$28)</f>
+        <f>MAX(Calcs!AJ35,0)</f>
         <v>0</v>
       </c>
       <c r="AK7">
-        <f>MAX(Calcs!AK35,0)*(About!$B$27/About!$B$28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+        <f>MAX(Calcs!AK35,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <f>0</f>
@@ -4964,9 +4930,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B9">
         <f>0</f>
@@ -5113,9 +5079,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <f>0</f>
@@ -5262,9 +5228,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B11">
         <f>0</f>
@@ -5414,285 +5380,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
-    <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <xsd:import namespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="00484652-42e1-479e-92f4-fb0efddcdf60" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eca5b831-c3dc-41cf-bd85-218b82cecb21" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c5b79d03-3bfd-4c46-9947-056a2403f6c9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB69F876-156E-45AD-8F58-E4AC32003198}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{839E348A-BDBC-4B46-AFF0-E2F82CBDFAE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BDE924E-E480-471E-9A0F-F535376B5487}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>